--- a/report_in_one_sheets_0001.xlsx
+++ b/report_in_one_sheets_0001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Pycharm\eAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C4EF6C-D985-4A43-91B8-75BB00A62DBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3117CDB4-2FF6-465A-A4BB-2B61ED4FC32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3465" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15254,7 +15254,7 @@
       <c r="W216" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W2" xr:uid="{092B54C8-C79A-48B9-9B84-39152432FF08}"/>
+  <autoFilter ref="A2:W2" xr:uid="{EA43C126-E9A7-429B-9904-769EE863531C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report_in_one_sheets_0001.xlsx
+++ b/report_in_one_sheets_0001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Pycharm\eAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4166CBC-9C32-477A-AB3C-45ECF59F14C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDF14A4-5BA0-4281-86A5-EB00E9183D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17010,7 +17010,7 @@
       <c r="W214" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:V2" xr:uid="{D20E0204-9015-45EA-BE53-274217C35803}"/>
+  <autoFilter ref="A2:V2" xr:uid="{470ABB59-9CA2-4C98-AC6B-6CBA52B36F97}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>